--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\Desktop\in_progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5F1BA-5D5F-4468-ABFA-293B61B2F39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894907F-30D8-46ED-9F54-30B6B691B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2244" windowWidth="19212" windowHeight="9624" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>location</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>SPRUCE</t>
+  </si>
+  <si>
+    <t>Providence Place Mall</t>
+  </si>
+  <si>
+    <t>PROVIDENCE PLACE MALL PARKING MALL</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -834,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -887,6 +893,20 @@
       </c>
       <c r="C31">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>41.827579999999998</v>
+      </c>
+      <c r="C32">
+        <v>-71.416219999999996</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894907F-30D8-46ED-9F54-30B6B691B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB897CD-2C75-4D2A-9B46-8945122C178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>location</t>
   </si>
@@ -66,9 +66,6 @@
     <t>AMTRAK</t>
   </si>
   <si>
-    <t>KENNEDY PLZ, KENNEDY</t>
-  </si>
-  <si>
     <t>William Ellery Plaza</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>PROVIDENCE PLACE MALL PARKING MALL</t>
+  </si>
+  <si>
+    <t>KENNEDY PLZ, KENNEDY, KENNEDY PL, COOKSON PL. &amp; KENNEDY PLAZA</t>
+  </si>
+  <si>
+    <t>S CRIMEA</t>
   </si>
 </sst>
 </file>
@@ -511,20 +514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -549,10 +552,10 @@
         <v>-71.411619999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -563,10 +566,10 @@
         <v>-71.412289999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -594,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -608,9 +611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>41.838070000000002</v>
@@ -619,12 +622,12 @@
         <v>-71.406670000000005</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
       </c>
       <c r="B8">
         <v>41.834589999999999</v>
@@ -633,9 +636,9 @@
         <v>-71.435100000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>41.82743</v>
@@ -644,12 +647,12 @@
         <v>-71.413920000000005</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
       </c>
       <c r="B10">
         <v>41.820300000000003</v>
@@ -658,9 +661,9 @@
         <v>-71.412949999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>41.846879999999999</v>
@@ -669,12 +672,12 @@
         <v>-71.383430000000004</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>41.816760000000002</v>
@@ -683,10 +686,10 @@
         <v>-71.443719999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -697,207 +700,207 @@
         <v>-71.466279999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
       </c>
       <c r="B32">
         <v>41.827579999999998</v>
@@ -906,7 +909,18 @@
         <v>-71.416219999999996</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal Water\geodata_pvdcrime\code\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB897CD-2C75-4D2A-9B46-8945122C178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250F872-FDFA-4298-AF7F-ED27174A2EA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>location</t>
   </si>
@@ -141,9 +141,6 @@
     <t>PROVIDENCE PL</t>
   </si>
   <si>
-    <t>OLNEYVILLE SQ</t>
-  </si>
-  <si>
     <t>DORRANCE PLZ</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>S CRIMEA</t>
+  </si>
+  <si>
+    <t>PROVIDENCE PERFORMING ARTS</t>
+  </si>
+  <si>
+    <t>SNOW ST AREA</t>
   </si>
 </sst>
 </file>
@@ -514,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -552,10 +555,10 @@
         <v>-71.411619999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -569,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -583,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -597,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -611,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -625,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -636,7 +639,7 @@
         <v>-71.435100000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -650,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -661,7 +664,7 @@
         <v>-71.412949999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -675,7 +678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -689,7 +692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -700,7 +703,7 @@
         <v>-71.466279999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -722,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -799,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -887,39 +890,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>41.827579999999998</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-71.416219999999996</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>41.827579999999998</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>-71.416219999999996</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>41.821109999999997</v>
       </c>
       <c r="C33">
+        <v>-71.412009999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0</v>
       </c>
     </row>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2250F872-FDFA-4298-AF7F-ED27174A2EA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E68B2-B265-4B99-9854-E4774FD9AF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>location</t>
   </si>
@@ -138,9 +138,6 @@
     <t>TROY</t>
   </si>
   <si>
-    <t>PROVIDENCE PL</t>
-  </si>
-  <si>
     <t>DORRANCE PLZ</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Providence Place Mall</t>
   </si>
   <si>
-    <t>PROVIDENCE PLACE MALL PARKING MALL</t>
-  </si>
-  <si>
     <t>KENNEDY PLZ, KENNEDY, KENNEDY PL, COOKSON PL. &amp; KENNEDY PLAZA</t>
   </si>
   <si>
@@ -166,19 +160,114 @@
   </si>
   <si>
     <t>SNOW ST AREA</t>
+  </si>
+  <si>
+    <t>PARK ROW</t>
+  </si>
+  <si>
+    <t>JACKSON WALKWAY</t>
+  </si>
+  <si>
+    <t>CANAL WALK</t>
+  </si>
+  <si>
+    <t>GANO ST BOAT RAMP</t>
+  </si>
+  <si>
+    <t>GANO PARK BOAT LAUNCH</t>
+  </si>
+  <si>
+    <t>DUPOINT DRIVE</t>
+  </si>
+  <si>
+    <t>DONIGIAN PARK</t>
+  </si>
+  <si>
+    <t>AMERICAS</t>
+  </si>
+  <si>
+    <t>PLEASANT VALLEY PKY</t>
+  </si>
+  <si>
+    <t>STEPHEN HOPKINS CT</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>DOWNTOWN</t>
+  </si>
+  <si>
+    <t>DABOLL</t>
+  </si>
+  <si>
+    <t>RANDALL SQ</t>
+  </si>
+  <si>
+    <t>ADMIRAL</t>
+  </si>
+  <si>
+    <t>FRIENDSHIP</t>
+  </si>
+  <si>
+    <t>ATWELLS AVE.</t>
+  </si>
+  <si>
+    <t>RT 6 WEST</t>
+  </si>
+  <si>
+    <t>PROVIDENCE PLACE MALL PARKING MALL, PROVIDENCE PL</t>
+  </si>
+  <si>
+    <t>NORTH MAIN</t>
+  </si>
+  <si>
+    <t>VALLEY</t>
+  </si>
+  <si>
+    <t>DIST 7 SUB</t>
+  </si>
+  <si>
+    <t>SPRUCE STREET 02903</t>
+  </si>
+  <si>
+    <t>SUTTON</t>
+  </si>
+  <si>
+    <t>FALLS PL</t>
+  </si>
+  <si>
+    <t>POINT STREET BRIDGE</t>
+  </si>
+  <si>
+    <t>STEEPLE COLLEGE</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>5800 Block - 1 FINANCIAL CENTER PLZ</t>
+  </si>
+  <si>
+    <t>DONAGAN PARK, DONIGAN PARK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,8 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,20 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,10 +647,10 @@
         <v>-71.411619999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -572,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -586,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -600,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -614,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -628,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -639,7 +731,7 @@
         <v>-71.435100000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -653,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -664,7 +756,7 @@
         <v>-71.412949999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -678,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -692,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -703,7 +795,7 @@
         <v>-71.466279999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -714,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -725,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -736,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -747,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -758,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -769,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -780,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -791,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -802,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -813,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -824,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -835,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -846,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -857,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -868,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -879,65 +971,380 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>41.827579999999998</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-71.416219999999996</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>41.827579999999998</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-71.416219999999996</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>41.821109999999997</v>
+      </c>
+      <c r="C32">
+        <v>-71.412009999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B33">
-        <v>41.821109999999997</v>
-      </c>
-      <c r="C33">
-        <v>-71.412009999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>41.828560000000003</v>
+      </c>
+      <c r="C34">
+        <v>-71.410160000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B35">
+        <v>41.820320000000002</v>
+      </c>
+      <c r="C35">
+        <v>-71.417460000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>41.824359999999999</v>
+      </c>
+      <c r="C36">
+        <v>-71.407640000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>41.822090000000003</v>
+      </c>
+      <c r="C37">
+        <v>-71.3887</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>41.823329999999999</v>
+      </c>
+      <c r="C39">
+        <v>-71.440820000000002</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>41.83775</v>
+      </c>
+      <c r="C43">
+        <v>-71.407229999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>41.836649999999999</v>
+      </c>
+      <c r="C47">
+        <v>-71.410880000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>41.817880000000002</v>
+      </c>
+      <c r="C59">
+        <v>-71.403670000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E68B2-B265-4B99-9854-E4774FD9AF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C227B-E5C9-41D7-90F0-6636CCEFE9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>location</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Amtrak Station</t>
   </si>
   <si>
-    <t>AMTRAK</t>
-  </si>
-  <si>
     <t>William Ellery Plaza</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>RT 6 WEST</t>
   </si>
   <si>
-    <t>PROVIDENCE PLACE MALL PARKING MALL, PROVIDENCE PL</t>
-  </si>
-  <si>
     <t>NORTH MAIN</t>
   </si>
   <si>
@@ -250,6 +244,42 @@
   </si>
   <si>
     <t>DONAGAN PARK, DONIGAN PARK</t>
+  </si>
+  <si>
+    <t>PROMENADE</t>
+  </si>
+  <si>
+    <t>S 103 MERCY ST APT1</t>
+  </si>
+  <si>
+    <t>THAYER ST AT CUSHING</t>
+  </si>
+  <si>
+    <t>SKID ROW</t>
+  </si>
+  <si>
+    <t>PROVIDENCE PLACE MALL PARKING MALL, PROVIDENCE PL, PROVIDENCE PLACE PL, PROVIDENCE PLACE MALL PARKING, ONE PROVIDENCE PLACE CMN</t>
+  </si>
+  <si>
+    <t>LA SALLE SQ</t>
+  </si>
+  <si>
+    <t>LA SALLE SQUARE</t>
+  </si>
+  <si>
+    <t>PLAINFIELD</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>OAKDALE</t>
+  </si>
+  <si>
+    <t>AMTRAK, STATION PARK</t>
+  </si>
+  <si>
+    <t>ALTHEA ST. SERVICE ROAD 1</t>
   </si>
 </sst>
 </file>
@@ -609,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -647,7 +677,7 @@
         <v>-71.411619999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -661,7 +691,7 @@
         <v>-71.412289999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -703,12 +733,12 @@
         <v>-71.413250000000005</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>41.838070000000002</v>
@@ -717,12 +747,12 @@
         <v>-71.406670000000005</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>41.834589999999999</v>
@@ -733,7 +763,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>41.82743</v>
@@ -742,12 +772,12 @@
         <v>-71.413920000000005</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>41.820300000000003</v>
@@ -758,7 +788,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>41.846879999999999</v>
@@ -767,12 +797,12 @@
         <v>-71.383430000000004</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>41.816760000000002</v>
@@ -781,7 +811,7 @@
         <v>-71.443719999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -797,7 +827,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -808,7 +838,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -819,7 +849,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -830,7 +860,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -841,7 +871,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -852,7 +882,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -863,7 +893,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -874,7 +904,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -885,7 +915,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -896,7 +926,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -907,7 +937,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -918,7 +948,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -929,7 +959,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -940,7 +970,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -951,7 +981,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -962,7 +992,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -973,7 +1003,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>41.827579999999998</v>
@@ -982,12 +1012,12 @@
         <v>-71.416219999999996</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -998,7 +1028,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>41.821109999999997</v>
@@ -1009,7 +1039,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1020,7 +1050,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>41.828560000000003</v>
@@ -1031,7 +1061,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>41.820320000000002</v>
@@ -1042,7 +1072,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>41.824359999999999</v>
@@ -1053,7 +1083,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>41.822090000000003</v>
@@ -1062,12 +1092,12 @@
         <v>-71.3887</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1078,7 +1108,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>41.823329999999999</v>
@@ -1087,12 +1117,12 @@
         <v>-71.440820000000002</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1103,7 +1133,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1114,7 +1144,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1125,7 +1155,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>41.83775</v>
@@ -1136,7 +1166,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1147,7 +1177,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1158,7 +1188,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1169,7 +1199,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>41.836649999999999</v>
@@ -1180,7 +1210,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1191,7 +1221,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1202,7 +1232,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1213,7 +1243,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1224,7 +1254,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1235,7 +1265,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1246,7 +1276,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1257,7 +1287,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1268,7 +1298,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1279,7 +1309,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1290,7 +1320,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1301,7 +1331,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>41.817880000000002</v>
@@ -1312,7 +1342,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1323,7 +1353,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1334,12 +1364,114 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>41.80941</v>
+      </c>
+      <c r="C65">
+        <v>-71.440060000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66">
+        <v>41.830047</v>
+      </c>
+      <c r="C66">
+        <v>-71.400886999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68">
+        <v>41.822938000000001</v>
+      </c>
+      <c r="C68">
+        <v>-71.418092999999999</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>0</v>
       </c>
     </row>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengzeng/Documents/Brown/GIS/geodata_pvdcrime/code/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C227B-E5C9-41D7-90F0-6636CCEFE9BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E26EA-D0E9-EE43-945F-8EAB7A24D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
+    <workbookView xWindow="10200" yWindow="4280" windowWidth="23260" windowHeight="12460" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>location</t>
   </si>
@@ -280,13 +280,31 @@
   </si>
   <si>
     <t>ALTHEA ST. SERVICE ROAD 1</t>
+  </si>
+  <si>
+    <t>N CADY</t>
+  </si>
+  <si>
+    <t>N UNKNOWN</t>
+  </si>
+  <si>
+    <t>DIMAN PL</t>
+  </si>
+  <si>
+    <t>N NORTH MAIN</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>CALHOUN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,20 +658,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -680,7 +699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -694,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -708,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -722,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -736,7 +755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -750,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -761,7 +780,7 @@
         <v>-71.435100000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -775,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -786,7 +805,7 @@
         <v>-71.412949999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -800,7 +819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -814,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -825,7 +844,7 @@
         <v>-71.466279999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -836,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -847,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -858,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -869,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -880,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -891,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -902,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -913,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -924,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -935,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -946,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -957,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -968,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -979,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -989,8 +1008,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1015,7 +1037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>-71.412009999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>-71.410160000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1070,7 +1092,7 @@
         <v>-71.417460000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1081,7 +1103,7 @@
         <v>-71.407640000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1120,7 +1142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1153,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>-71.407229999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1175,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1197,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>-71.410880000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -1241,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1285,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -1296,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -1307,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -1329,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -1340,7 +1365,7 @@
         <v>-71.403670000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -1351,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -1362,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -1373,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -1384,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>84</v>
       </c>
@@ -1406,7 +1431,7 @@
         <v>-71.440060000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -1417,7 +1442,7 @@
         <v>-71.400886999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -1428,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -1442,7 +1467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -1453,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -1464,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -1472,6 +1497,50 @@
         <v>0</v>
       </c>
       <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
     </row>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengzeng/Documents/Brown/GIS/geodata_pvdcrime/code/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E26EA-D0E9-EE43-945F-8EAB7A24D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94094012-72F6-4CDF-B3ED-E56931DA59CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="4280" windowWidth="23260" windowHeight="12460" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
+    <workbookView xWindow="10200" yWindow="4284" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>location</t>
   </si>
@@ -298,13 +298,40 @@
   </si>
   <si>
     <t>CALHOUN</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>S CHARLES 104</t>
+  </si>
+  <si>
+    <t>ELMWOOD ST PROVIDENCE</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>FEDERAL HILL</t>
+  </si>
+  <si>
+    <t>NPA</t>
+  </si>
+  <si>
+    <t>UNAVAILABLE CT</t>
+  </si>
+  <si>
+    <t>MARKET ST 10TH</t>
+  </si>
+  <si>
+    <t>BROADWAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,9 +389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,7 +429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -508,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,20 +685,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -699,7 +726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -713,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -727,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -741,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -755,7 +782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -769,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -780,7 +807,7 @@
         <v>-71.435100000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -794,7 +821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -805,7 +832,7 @@
         <v>-71.412949999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -819,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -833,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -844,7 +871,7 @@
         <v>-71.466279999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -855,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -866,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -877,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -888,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -899,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -910,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -921,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -932,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -943,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -954,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -965,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -987,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1023,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1037,7 +1064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1048,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +1086,7 @@
         <v>-71.412009999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>-71.410160000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1119,7 @@
         <v>-71.417460000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1130,7 @@
         <v>-71.407640000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1142,7 +1169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1153,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1175,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -1186,7 +1213,7 @@
         <v>-71.407229999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1219,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>-71.410880000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -1241,9 +1268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1252,9 +1279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1263,9 +1290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1274,9 +1301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1284,10 +1311,13 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1295,13 +1325,10 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1310,9 +1337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1321,9 +1348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1332,9 +1359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1343,31 +1370,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>41.817880000000002</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>-71.403670000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>41.817880000000002</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-71.403670000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1376,9 +1403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1387,9 +1414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1398,9 +1425,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1409,67 +1436,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>41.80941</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>-71.440060000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>41.80941</v>
+        <v>41.830047</v>
       </c>
       <c r="C65">
-        <v>-71.440060000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>-71.400886999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>41.830047</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-71.400886999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>41.822938000000001</v>
       </c>
       <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>-71.418092999999999</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>41.822938000000001</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>-71.418092999999999</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1478,9 +1505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1489,9 +1516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1500,9 +1527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1511,9 +1538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1522,9 +1549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1533,14 +1560,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>0</v>
       </c>
     </row>

--- a/code/inputs/landmarks.xlsx
+++ b/code/inputs/landmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Library_Shared\_geodata\data_public\providence_crime\geodata_pvdcrime\code\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94094012-72F6-4CDF-B3ED-E56931DA59CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583B2D4-9511-4570-8B24-6BD339A7F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="4284" windowWidth="23256" windowHeight="12456" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{330E0894-3643-48AB-9E2C-CEE2BA7238FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>location</t>
   </si>
@@ -57,9 +57,6 @@
     <t>PARKING LOT ATWELLS &amp; BROADWAY</t>
   </si>
   <si>
-    <t>RODGER WILLIAM ZOO, ROGER WILLIAMS ZOO</t>
-  </si>
-  <si>
     <t>Amtrak Station</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>SKID ROW</t>
   </si>
   <si>
-    <t>PROVIDENCE PLACE MALL PARKING MALL, PROVIDENCE PL, PROVIDENCE PLACE PL, PROVIDENCE PLACE MALL PARKING, ONE PROVIDENCE PLACE CMN</t>
-  </si>
-  <si>
     <t>LA SALLE SQ</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>DIMAN PL</t>
   </si>
   <si>
-    <t>N NORTH MAIN</t>
-  </si>
-  <si>
     <t>WASHINGTON</t>
   </si>
   <si>
@@ -325,6 +316,126 @@
   </si>
   <si>
     <t>BROADWAY</t>
+  </si>
+  <si>
+    <t>NOT IDENTIFIED</t>
+  </si>
+  <si>
+    <t>WESTMINSTER ST / ROUTE 10</t>
+  </si>
+  <si>
+    <t>7ELEVEN</t>
+  </si>
+  <si>
+    <t>LINCOLN ALMOND</t>
+  </si>
+  <si>
+    <t>CATHEDRAL SQUARE</t>
+  </si>
+  <si>
+    <t>DOUGLAS / VEAIZE</t>
+  </si>
+  <si>
+    <t>JOHN J PARTINGTON WAY/BROADWAY</t>
+  </si>
+  <si>
+    <t>COMSTOCK</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>N NORTH MAIN, NORTHMAIN, N. MAIN, S NORTH MAIN</t>
+  </si>
+  <si>
+    <t>THURBERS AVE.</t>
+  </si>
+  <si>
+    <t>JUDITH</t>
+  </si>
+  <si>
+    <t>PEACH LOOP</t>
+  </si>
+  <si>
+    <t>BRANCH AVE / 146</t>
+  </si>
+  <si>
+    <t>W RIVER ST. PKWY</t>
+  </si>
+  <si>
+    <t>CLIFFORD</t>
+  </si>
+  <si>
+    <t>RANDALL</t>
+  </si>
+  <si>
+    <t>PECKHAM</t>
+  </si>
+  <si>
+    <t>MEETING</t>
+  </si>
+  <si>
+    <t>SPRUCE ST NEAR AMES</t>
+  </si>
+  <si>
+    <t>TOCKWOTTON ST PROVIDENCE, RI</t>
+  </si>
+  <si>
+    <t>RODGER WILLIAM ZOO, ROGER WILLIAMS ZOO, ZOO</t>
+  </si>
+  <si>
+    <t>DELAINE</t>
+  </si>
+  <si>
+    <t>BANKNEWPORT</t>
+  </si>
+  <si>
+    <t>THEY REFUSE TO DISCLOSE INFO</t>
+  </si>
+  <si>
+    <t>S EAST</t>
+  </si>
+  <si>
+    <t>THAYER ST., LINCOLN FIELD</t>
+  </si>
+  <si>
+    <t>PROVIDENCE PLACE MALL PARKING MALL, PROVIDENCE PL, PROVIDENCE PLACE PL, PROVIDENCE PLACE MALL PARKING, ONE PROVIDENCE PLACE CMN, PROVIDENCE PL PL, PROVIDENCE MALL, PROVIDENCE PLACE</t>
+  </si>
+  <si>
+    <t>MANTON AVE / UNKNOWN</t>
+  </si>
+  <si>
+    <t>SOUTH MAIN</t>
+  </si>
+  <si>
+    <t>HARTFORD AVE / RT 6</t>
+  </si>
+  <si>
+    <t>DORRANCE</t>
+  </si>
+  <si>
+    <t>W RIVER SQ</t>
+  </si>
+  <si>
+    <t>DISTRICT PARK</t>
+  </si>
+  <si>
+    <t>PLEASANT VALLEY</t>
+  </si>
+  <si>
+    <t>GREEN ST/WASHINGTON</t>
+  </si>
+  <si>
+    <t>GREENE ST/WASHINGTON</t>
+  </si>
+  <si>
+    <t>N/A'</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>CATHEDRAL SQ</t>
   </si>
 </sst>
 </file>
@@ -366,11 +477,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,9 +501,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +541,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +647,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20005D-6A1D-449E-93B2-CD2D6060E071}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -723,7 +835,7 @@
         <v>-71.411619999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -737,7 +849,7 @@
         <v>-71.412289999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -751,7 +863,7 @@
         <v>-71.417019999999994</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -770,7 +882,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>41.829219999999999</v>
@@ -779,12 +891,12 @@
         <v>-71.413250000000005</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>41.838070000000002</v>
@@ -793,12 +905,12 @@
         <v>-71.406670000000005</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>41.834589999999999</v>
@@ -809,7 +921,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>41.82743</v>
@@ -818,12 +930,12 @@
         <v>-71.413920000000005</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>41.820300000000003</v>
@@ -834,7 +946,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>41.846879999999999</v>
@@ -843,12 +955,12 @@
         <v>-71.383430000000004</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>41.816760000000002</v>
@@ -857,7 +969,7 @@
         <v>-71.443719999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -873,7 +985,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -884,7 +996,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -895,7 +1007,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -906,7 +1018,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -917,7 +1029,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -928,7 +1040,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -939,7 +1051,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -950,7 +1062,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -961,7 +1073,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -972,7 +1084,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -983,7 +1095,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -994,7 +1106,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1005,7 +1117,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1016,18 +1128,21 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1036,12 +1151,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1052,7 +1167,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>41.827579999999998</v>
@@ -1061,12 +1176,12 @@
         <v>-71.416219999999996</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1077,7 +1192,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>41.821109999999997</v>
@@ -1088,7 +1203,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1099,7 +1214,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>41.828560000000003</v>
@@ -1110,7 +1225,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>41.820320000000002</v>
@@ -1121,7 +1236,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>41.824359999999999</v>
@@ -1132,7 +1247,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>41.822090000000003</v>
@@ -1141,12 +1256,12 @@
         <v>-71.3887</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1157,7 +1272,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>41.823329999999999</v>
@@ -1166,12 +1281,12 @@
         <v>-71.440820000000002</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1182,7 +1297,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1193,7 +1308,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1204,7 +1319,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>41.83775</v>
@@ -1215,7 +1330,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1226,7 +1341,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1237,7 +1352,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1248,7 +1363,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>41.836649999999999</v>
@@ -1259,7 +1374,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1270,7 +1385,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1281,7 +1396,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1292,7 +1407,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1303,7 +1418,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1312,12 +1427,12 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1328,7 +1443,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1339,7 +1454,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1350,7 +1465,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1361,7 +1476,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1372,7 +1487,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>41.817880000000002</v>
@@ -1383,7 +1498,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1394,7 +1509,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1405,7 +1520,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1416,7 +1531,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1427,7 +1542,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1438,7 +1553,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64">
         <v>41.80941</v>
@@ -1449,7 +1564,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>41.830047</v>
@@ -1460,7 +1575,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1471,7 +1586,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>41.822938000000001</v>
@@ -1480,12 +1595,12 @@
         <v>-71.418092999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1496,7 +1611,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1507,7 +1622,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1518,7 +1633,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1529,7 +1644,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1540,7 +1655,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1551,7 +1666,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1562,7 +1677,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1573,7 +1688,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1584,7 +1699,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1595,7 +1710,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1606,7 +1721,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1617,46 +1732,420 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>96</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>97</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>98</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B85">
+        <v>41.81597</v>
+      </c>
+      <c r="C85">
+        <v>-71.439019999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>99</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88">
+        <v>41.819750999999997</v>
+      </c>
+      <c r="C88">
+        <v>-71.416990999999996</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>41.846688</v>
+      </c>
+      <c r="C89">
+        <v>-71.429687000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90">
+        <v>41.821891999999998</v>
+      </c>
+      <c r="C90">
+        <v>-71.420856000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96">
+        <v>41.853093000000001</v>
+      </c>
+      <c r="C96">
+        <v>-71.427211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103">
+        <v>41.824607100000001</v>
+      </c>
+      <c r="C103">
+        <v>-71.431384199999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109">
+        <v>41.826400999999997</v>
+      </c>
+      <c r="C109">
+        <v>-71.405561000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112">
+        <v>41.817158999999997</v>
+      </c>
+      <c r="C112">
+        <v>-71.449358000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116">
+        <v>41.821272999999998</v>
+      </c>
+      <c r="C116">
+        <v>-71.417964999999995</v>
+      </c>
+      <c r="D116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
